--- a/방명록/방명록 - 테이블 명세 - 0518.xlsx
+++ b/방명록/방명록 - 테이블 명세 - 0518.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="방명록" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -219,6 +220,34 @@
   </si>
   <si>
     <t>gb_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;//</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>";</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>="</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static final String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,20 +645,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1645,10 +1680,10 @@
         <v>12</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="27">
+      <c r="J2" s="26">
         <v>44334</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -1664,10 +1699,10 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="29" t="s">
         <v>17</v>
       </c>
@@ -2055,4 +2090,267 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>